--- a/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_male_30_vs_3_DOWN0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_male_30_vs_3_DOWN0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,49 +38,37 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">mt:lrRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsromega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:CoIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND3</t>
+  </si>
+  <si>
     <t xml:space="preserve">TM4SF</t>
   </si>
   <si>
-    <t xml:space="preserve">down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsromega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:lrRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atpalpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyt-c-p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:Cyt-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RpL15</t>
+    <t xml:space="preserve">Thd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe</t>
   </si>
   <si>
     <t xml:space="preserve">Mpcp2</t>
@@ -89,67 +77,238 @@
     <t xml:space="preserve">mt:ND4</t>
   </si>
   <si>
-    <t xml:space="preserve">porin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vha13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DnaJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:CoII</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dop2R</t>
   </si>
   <si>
-    <t xml:space="preserve">nSyb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp70Bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrv3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR31451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA-2</t>
+    <t xml:space="preserve">CG7582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-2mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:srRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rab3-GEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpr11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyrk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpr67B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gad1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UbcE2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drl-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cda5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snmp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRSp53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NimC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mipp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABA-B-R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR12842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-Est7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pxb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR32111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mAChR-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rgk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45706</t>
   </si>
 </sst>
 </file>
@@ -512,22 +671,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>3.01901027895868</v>
+        <v>15781.0745850925</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.32060415963769</v>
+        <v>-3.41394521537056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0349159801779872</v>
+        <v>0.249411377461194</v>
       </c>
       <c r="E2" t="n">
-        <v>-37.8223424605523</v>
+        <v>-13.688009144257</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000000000000000000000000119745361902133</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000000000000000000000988497962502104</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -538,22 +697,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>9.64353980081859</v>
+        <v>17489.8574451337</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.71786459664156</v>
+        <v>-1.89744811826171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0402732546146811</v>
+        <v>0.216045566574782</v>
       </c>
       <c r="E3" t="n">
-        <v>-42.6552215130718</v>
+        <v>-8.78262927744422</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.00000000000000000159696854530471</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.00000000000000659148767074518</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -564,22 +723,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>22.3521466329093</v>
+        <v>1950.25984802435</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.31775502745918</v>
+        <v>-1.57404610655155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0433240505783216</v>
+        <v>0.248679715507679</v>
       </c>
       <c r="E4" t="n">
-        <v>-53.498114708114</v>
+        <v>-6.32961198036653</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.000000000245778470417284</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.00000033815021221578</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -590,22 +749,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5619010974277</v>
+        <v>1099.09992932146</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.56402243980626</v>
+        <v>-1.63703908791123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0420622161680257</v>
+        <v>0.282310085785533</v>
       </c>
       <c r="E5" t="n">
-        <v>-84.7321602259158</v>
+        <v>-5.79872689761027</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.00000000668202488804746</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.00000501455595007562</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -616,22 +775,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>3.40556153506344</v>
+        <v>7161.19553088741</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.43152213995597</v>
+        <v>-1.29566417437455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0393548862929686</v>
+        <v>0.225111370502659</v>
       </c>
       <c r="E6" t="n">
-        <v>-36.3746989204675</v>
+        <v>-5.75565850574944</v>
       </c>
       <c r="F6" t="n">
-        <v>1.06962907513535e-289</v>
+        <v>0.00000000863046977717053</v>
       </c>
       <c r="G6" t="n">
-        <v>1.20162130300706e-286</v>
+        <v>0.00000593704400087856</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -642,22 +801,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>3.83153817865372</v>
+        <v>296.153720586608</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.15288813113458</v>
+        <v>-1.80565054515297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0613687749464345</v>
+        <v>0.314459300621568</v>
       </c>
       <c r="E7" t="n">
-        <v>-35.081165185613</v>
+        <v>-5.74208026788799</v>
       </c>
       <c r="F7" t="n">
-        <v>1.30610311305203e-269</v>
+        <v>0.00000000935204700861865</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22273019766888e-266</v>
+        <v>0.00000593854985047284</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -668,22 +827,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0804479780979</v>
+        <v>1620.33515864254</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.30258646675079</v>
+        <v>-1.50093429459562</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0374410840594025</v>
+        <v>0.28765046497688</v>
       </c>
       <c r="E8" t="n">
-        <v>-34.790297863282</v>
+        <v>-5.21791019776818</v>
       </c>
       <c r="F8" t="n">
-        <v>3.40989853039806e-265</v>
+        <v>0.000000180953153990117</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7362000064637e-262</v>
+        <v>0.0000665857723302384</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -694,22 +853,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>4.44646602697463</v>
+        <v>708.234110422129</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.60243668101681</v>
+        <v>-1.14403650453171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0462774165499537</v>
+        <v>0.247674811769126</v>
       </c>
       <c r="E9" t="n">
-        <v>-34.6267531872069</v>
+        <v>-4.61910719285474</v>
       </c>
       <c r="F9" t="n">
-        <v>1.00002598334534e-262</v>
+        <v>0.00000385394731857082</v>
       </c>
       <c r="G9" t="n">
-        <v>7.02143243556348e-260</v>
+        <v>0.00102626887467104</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -720,22 +879,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>2.82306567256035</v>
+        <v>203.746120187925</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.91787939494348</v>
+        <v>-1.76403603901433</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0602616440241094</v>
+        <v>0.38411662049442</v>
       </c>
       <c r="E10" t="n">
-        <v>-31.8258724268488</v>
+        <v>-4.5924491284541</v>
       </c>
       <c r="F10" t="n">
-        <v>2.83986642298172e-222</v>
+        <v>0.00000438074317873635</v>
       </c>
       <c r="G10" t="n">
-        <v>1.77239218865426e-219</v>
+        <v>0.00109584954365056</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -746,22 +905,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>4.90923332099611</v>
+        <v>468.347940669098</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.26898932331052</v>
+        <v>-1.08585725760027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0417489206042066</v>
+        <v>0.268467230447179</v>
       </c>
       <c r="E11" t="n">
-        <v>-30.3957396968642</v>
+        <v>-4.04465474535415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000625327142344191</v>
+        <v>0.0000524002880431531</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000351246255854732</v>
+        <v>0.00743727879269755</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -772,22 +931,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>2.36390489760871</v>
+        <v>1869.84073421363</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.20385583867519</v>
+        <v>-1.05979246245019</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0397905341667544</v>
+        <v>0.274822474966404</v>
       </c>
       <c r="E12" t="n">
-        <v>-30.2548297951986</v>
+        <v>-3.85628017715709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000450732581372344</v>
+        <v>0.000115125529992043</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000230160446324405</v>
+        <v>0.0126714833344576</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -798,22 +957,22 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8317370715673</v>
+        <v>1361.33264857768</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.23286940304641</v>
+        <v>-1.12171456125558</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0412737101083396</v>
+        <v>0.291810559097086</v>
       </c>
       <c r="E13" t="n">
-        <v>-29.8705737819606</v>
+        <v>-3.84398208456322</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000474601995908999</v>
+        <v>0.000121053846931217</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000222153284251737</v>
+        <v>0.0131486777160158</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -824,22 +983,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>4.59354613250937</v>
+        <v>8078.9399134311</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.03765716806978</v>
+        <v>-1.17952092797016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0351283064780718</v>
+        <v>0.312141134249481</v>
       </c>
       <c r="E14" t="n">
-        <v>-29.5390604359911</v>
+        <v>-3.77880643897262</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000907609939827606</v>
+        <v>0.000157581849669943</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000392157310154743</v>
+        <v>0.0164663059370301</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -850,22 +1009,22 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>7.85309098036769</v>
+        <v>436.973714734187</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.08536316266295</v>
+        <v>-1.18646930757228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0370173395752884</v>
+        <v>0.314912182604904</v>
       </c>
       <c r="E15" t="n">
-        <v>-29.3203989026674</v>
+        <v>-3.76761958765136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000569991910783968</v>
+        <v>0.000164811595106582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000213442970858236</v>
+        <v>0.0170064964700604</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -876,22 +1035,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>3.32449563543771</v>
+        <v>101.839601699888</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.10935519325967</v>
+        <v>-1.79932506282106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0392690006187012</v>
+        <v>0.495849420951763</v>
       </c>
       <c r="E16" t="n">
-        <v>-28.2501509022707</v>
+        <v>-3.6287731452168</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000141727923406945</v>
+        <v>0.000284771341875735</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000497553591110507</v>
+        <v>0.0232852469562504</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -902,22 +1061,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>2.6248940644599</v>
+        <v>168.032897777824</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.09985553421474</v>
+        <v>-1.92574154024576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0399170829757664</v>
+        <v>0.530703092381645</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.553504720835</v>
+        <v>-3.62866086120505</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000401752227117563</v>
+        <v>0.000284895208065571</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000132743662336432</v>
+        <v>0.0232852469562504</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -928,22 +1087,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>4.50617082785666</v>
+        <v>135.133261239704</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.12006386130396</v>
+        <v>-1.45229400335211</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0408086855285545</v>
+        <v>0.407366578850668</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.4467027495956</v>
+        <v>-3.56507892093056</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000760662099795795</v>
+        <v>0.000363746717793249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000237368834141832</v>
+        <v>0.0283276335413516</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -954,22 +1113,22 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>4.93302318780743</v>
+        <v>118.577249763937</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.02688341202319</v>
+        <v>-1.46741827213795</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0386912456877096</v>
+        <v>0.413736613358578</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.5404587981352</v>
+        <v>-3.54674501786519</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000330963028050591</v>
+        <v>0.000390021877911011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000929509664280084</v>
+        <v>0.0292693691105036</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -980,22 +1139,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>1.8575641837212</v>
+        <v>133.44297255676</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.16149884104197</v>
+        <v>-1.59433279871377</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0438050534108379</v>
+        <v>0.455818744378701</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.5151791997267</v>
+        <v>-3.49773417257535</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000647791924036868</v>
+        <v>0.000469228574124466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000173268916062623</v>
+        <v>0.0342786007026325</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1006,22 +1165,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>16.2372617926283</v>
+        <v>254.176407646349</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.07900526618588</v>
+        <v>-1.25387007947525</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0412420603153056</v>
+        <v>0.361306080698706</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.1627391535879</v>
+        <v>-3.47038189075167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000705901698886387</v>
+        <v>0.000519718856210187</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000172393471419341</v>
+        <v>0.0366690526326077</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -1032,22 +1191,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4177283707</v>
+        <v>254.136502964091</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.07475305567271</v>
+        <v>-1.08479181131474</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0411122363011676</v>
+        <v>0.314757626909256</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.1419264036042</v>
+        <v>-3.44643534762538</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000121752023151131</v>
+        <v>0.000568034465207515</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000027355244561596</v>
+        <v>0.0389982291102253</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1058,22 +1217,22 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>11.1227922542485</v>
+        <v>929.973290075597</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.58200098046879</v>
+        <v>-1.18481868844312</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0605126597509536</v>
+        <v>0.343751649581571</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.1433059954674</v>
+        <v>-3.4467287353685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000117432960290843</v>
+        <v>0.000567418004139578</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000027355244561596</v>
+        <v>0.0389982291102253</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1084,22 +1243,22 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>6.95564301196349</v>
+        <v>56.6718718894221</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.02252550711065</v>
+        <v>-2.03446028924164</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0391962560778652</v>
+        <v>0.591224042398698</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.0873259190713</v>
+        <v>-3.44109870936148</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000050772620483063</v>
+        <v>0.000579357136849009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000109688388174371</v>
+        <v>0.0389982291102253</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1110,22 +1269,22 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>2.08962148783756</v>
+        <v>22.784134784064</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.32162178085782</v>
+        <v>-4.70793972415205</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0509015291853396</v>
+        <v>1.39911418048153</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.9642844136491</v>
+        <v>-3.36494318321593</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000125429045148412</v>
+        <v>0.000765594224912106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000251619623785225</v>
+        <v>0.0475186490725522</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1136,22 +1295,22 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>4.92817314161515</v>
+        <v>261.092726590407</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.0470567994653</v>
+        <v>-1.21681964357075</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0404974655922911</v>
+        <v>0.370758386512955</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.8548722531567</v>
+        <v>-3.28197469790271</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000214473982050553</v>
+        <v>0.00103082854388019</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000388613018444503</v>
+        <v>0.0567299308648729</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1162,22 +1321,22 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>4.92050173310237</v>
+        <v>35.7948731208131</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.08674138097507</v>
+        <v>-3.1967525715662</v>
       </c>
       <c r="D27" t="n">
-        <v>0.043258195756734</v>
+        <v>0.974697633614181</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.1222077565705</v>
+        <v>-3.27973769641016</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000284494809107235</v>
+        <v>0.0010390364152642</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000470002159633924</v>
+        <v>0.0568029510463974</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1188,22 +1347,22 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>5.15517680794235</v>
+        <v>196.487762137375</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.06694345828677</v>
+        <v>-1.0767110266481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0426439304578337</v>
+        <v>0.330123118351302</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.0198198625655</v>
+        <v>-3.26154385074696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000372102460423291</v>
+        <v>0.00110807292681663</v>
       </c>
       <c r="G28" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000580583200054896</v>
+        <v>0.0586355257107136</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1214,22 +1373,22 @@
         <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>4.45381465038015</v>
+        <v>251.789034160616</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.03793743390501</v>
+        <v>-1.04487862187364</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0415491480859532</v>
+        <v>0.322043697425042</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.9809558491504</v>
+        <v>-3.24452436184329</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000984697274400604</v>
+        <v>0.00117646953379464</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149487691629951</v>
+        <v>0.0610802264243698</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1240,22 +1399,22 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>4.87857794798814</v>
+        <v>471.660164580938</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.00840448296663</v>
+        <v>-1.09473102767185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0412342946556926</v>
+        <v>0.342750038592559</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.4554803565051</v>
+        <v>-3.19396325137457</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000440025168896613</v>
+        <v>0.00140333980127683</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000060283448138836</v>
+        <v>0.0697865666237363</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1266,22 +1425,22 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>15.8410086407917</v>
+        <v>266.805119512601</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.05643279797959</v>
+        <v>-1.00862616223916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0433758777603074</v>
+        <v>0.316654491577615</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.3553065097005</v>
+        <v>-3.18525771484892</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000509342100023875</v>
+        <v>0.00144625150413815</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000665342924612582</v>
+        <v>0.0708198169930742</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1292,22 +1451,22 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>5.26543482276242</v>
+        <v>153.898059547634</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.01658066042432</v>
+        <v>-1.17561362736218</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0418196123684994</v>
+        <v>0.371629783953519</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.3087059599352</v>
+        <v>-3.16339991605522</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000158590982033704</v>
+        <v>0.00155937958823938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000202455805928027</v>
+        <v>0.073577985914709</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1318,22 +1477,22 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>1.81155291086466</v>
+        <v>217.116310110136</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.15582561451296</v>
+        <v>-1.20399735323277</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0516002553521567</v>
+        <v>0.385045642075513</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.399610362871</v>
+        <v>-3.12689515648809</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000397035289682637</v>
+        <v>0.00176662915556959</v>
       </c>
       <c r="G33" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000343099572638057</v>
+        <v>0.0784060412861664</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1344,22 +1503,22 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>11.6520195967184</v>
+        <v>224.211685344695</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.05732292860502</v>
+        <v>-1.05632241536673</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0479029479378077</v>
+        <v>0.340362606948588</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.0721891683523</v>
+        <v>-3.10352075639817</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000584900023496796</v>
+        <v>0.00191232820316195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000483144622350221</v>
+        <v>0.0826506246968687</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1370,22 +1529,22 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>5.39120773354263</v>
+        <v>369.122153846269</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.12222164595009</v>
+        <v>-1.06440544158719</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0524197825401307</v>
+        <v>0.343357084273859</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.4083613393657</v>
+        <v>-3.09999557410684</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111670651634666</v>
+        <v>0.00193523534381934</v>
       </c>
       <c r="G35" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000704779831721258</v>
+        <v>0.0831265593846249</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -1396,22 +1555,22 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>22.3781303265924</v>
+        <v>160.233126860527</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.07015799969822</v>
+        <v>-1.0711582193632</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0507580635707015</v>
+        <v>0.352269672158996</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.0835072186627</v>
+        <v>-3.04073357436158</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000112713748787257</v>
+        <v>0.00236002560182019</v>
       </c>
       <c r="G36" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000666434870461074</v>
+        <v>0.0947588147786012</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1422,22 +1581,22 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>16.1647622616561</v>
+        <v>14.2593869950274</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.35414402031544</v>
+        <v>-3.49564352081067</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0661883129063907</v>
+        <v>1.15176643068501</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.4589596086334</v>
+        <v>-3.03502813390008</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000499937180018935</v>
+        <v>0.00240513250198488</v>
       </c>
       <c r="G37" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000260013624089477</v>
+        <v>0.0959148251395421</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1448,24 +1607,1402 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>19.2386800680088</v>
+        <v>271.783324083963</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.02228908702756</v>
+        <v>-1.00069872415834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0571674918080411</v>
+        <v>0.330953603202116</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.8823498232219</v>
+        <v>-3.02368281981571</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000161868708714182</v>
+        <v>0.00249718097145491</v>
       </c>
       <c r="G38" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000594259174410169</v>
+        <v>0.0976720581274994</v>
       </c>
       <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>34.835393470745</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-3.57466302162938</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.18282620124927</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-3.02213716423757</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00250996786199118</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0976720581274994</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1050.47478742997</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.30388097716279</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.442130423863666</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2.94908675537076</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00318714493587618</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.114390788894165</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8.6293414787965</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-6.47336636943155</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.22574885918097</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.90839927547513</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0036328418290264</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.124463643158292</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>155.453136578116</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.19828973173444</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.412680078718648</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2.90367719094916</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00368808209127355</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.125411370122142</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14.259120578245</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.84141797137532</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.02339079251756</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.8869450197049</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0038900219927507</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.129484401411924</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>39.4993525145006</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2.10717955071914</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.749194901771589</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.81259195135523</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.00491439703619454</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.154252271991582</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>151.600879613289</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.09438939268426</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.390521634872577</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.80237839586364</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00507273363614646</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.158619000630262</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>153.911974319749</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.01509169766522</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.373393408975257</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.71855815680048</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00655671282469461</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.188096216566686</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>127.22174513318</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.09800016992551</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.405597686033638</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-2.7071164548864</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.00678704447645913</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.192173457107056</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.0361471371766</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-5.58643960338555</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.08115884915455</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.68429274663727</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0072683432001713</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.198767496836059</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>186.431233549422</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.71626714383593</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.641599050908714</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.67498391932646</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.00747328346931791</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.201607696206599</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>39.5280969257987</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.66099813872402</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.630686655370684</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.63363450705608</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.00844763683118843</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.217243744677447</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>270.596165198956</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.05119723250904</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.401765827618664</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-2.6164426146934</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00888512980479132</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.224301977182117</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>141.447205975095</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.00486662633004</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.401427359411207</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2.50323402920003</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0123064138628736</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.278327250515127</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.46358947695679</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-4.08862720735044</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.63402866785195</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-2.50217593350136</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0123432569807903</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.278397776984764</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>59.817540294874</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.60999444544448</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.646298423482508</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-2.49110068498884</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.012734802588497</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.282596224107642</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>23.8438246500826</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.01781054159328</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.820363415416453</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.45965446980464</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0139070836197345</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.301320145094247</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12.5389354794679</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.68708711114854</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.10286933517491</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2.43645101504466</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0148321782119793</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.309403604311753</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>218.195385511386</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-3.5461188481489</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.46510660188442</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-2.42038281964458</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0155041753779348</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.313623512659007</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40.9288874543424</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.50438230786585</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.629563641528775</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.38956351452054</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0168684068896416</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.328416742627338</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>51.0131149491068</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.7505723544221</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.731834270111759</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2.3920338605553</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0167552965070306</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.328416742627338</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>111.90304537961</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.08231207921118</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.455044369648975</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2.37847592762457</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0173843719682894</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.332965175401924</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>15.2772978764808</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-3.00831519765372</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.26474546809966</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-2.37859337987893</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0173788345576074</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.332965175401924</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>57.7972551813364</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.12793991851223</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.901380005096535</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.36075784517135</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0182376350534485</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.342162903105039</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.7637172802204</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-4.74621663591302</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.00846309669068</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2.3631087092082</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0181223527983315</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.342162903105039</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20.6985092557439</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-2.09965969745226</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.914671201487973</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.29553493543534</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0217024866853527</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.382156522961862</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>103.369407384614</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.04942776613228</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.461332182450504</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.27477684422086</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0229193199918206</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.394831825650152</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>61.4702942479557</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.1446891884198</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.508986458881933</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.24895803895115</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0245151658537477</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.404937823979105</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>14.8522023593201</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2.96337626840666</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.31697573909572</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-2.25013732632721</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0244402292771172</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.404937823979105</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.0823607707561</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.69034243105651</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.20720586682062</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2.22856971209225</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0258425481619205</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.415039367853412</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>65.1849715782267</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.11514035835401</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.50259185388871</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-2.21877921364189</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0265017488300712</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.419907747777807</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69.9136663458872</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.077720278008</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.489075562462098</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-2.20358644088157</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0275534417210461</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.430135475325411</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>26.358262762533</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.61750634954807</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.735038245840371</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2.20057440371524</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0277661672923805</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.432471152827549</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>54.6949187628712</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.25942016798209</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.577574863171116</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2.18053147442631</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0292180883894681</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.445009814861733</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>280.626502831605</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.15998084165076</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.537900707931318</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-2.15649621676809</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.031044938869735</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.459990415678164</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16.5239777862009</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.35185168854029</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.09593950937288</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.14596852146162</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0318754902213926</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.46661859803478</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>12.5561144200428</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-2.89434331522443</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.35236480032269</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.140208998736</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0323378802656478</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.469980988719934</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>105.696131474584</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.07062331069166</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.501016622730883</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.13690177554595</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.032605981568513</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.473044600787477</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19.4049365065193</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3.46079225800434</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.62231263549721</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.13324619575786</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.032904535369681</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.474701239281706</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>57.7780988893788</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.10126323853387</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.52397118767595</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-2.10176296795722</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0355740445883919</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.492724392746938</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>39.1954065229834</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-4.8698594139101</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.3304526841072</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-2.08966242787107</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0366481343530541</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.498402552033709</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>38.0273146368001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.4322833241457</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.696065279404053</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-2.05768534435731</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0396203481218747</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.515876930198857</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>59.6974138950813</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.24638058691242</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.608818469519499</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.04721218115492</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0406372559354101</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.519109810842778</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.2052044185902</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.66556700151972</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.814681739215185</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.04443885427483</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0409102121952489</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.519559694879661</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>24.5063702997016</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.52577210672578</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.755555968758553</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.01940315451781</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.043445333949142</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.534666704745963</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>164.876643982276</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.12929018407588</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.562704512292226</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-2.00689733138201</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0447605960694514</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.543563680977766</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10.7779229272043</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-3.90314011244231</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.95427988978971</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.99722677024646</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0458005542257456</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.550339992916346</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>59.2464797350636</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.08171080454677</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.543873681226364</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.98890080892985</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.046712152477393</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.554832832663135</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.02840881519611</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-5.69479176260363</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.86638113980651</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1.98675315139285</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0469497585564793</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.555258247684437</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.02840881519611</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-5.69479176260363</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.86638113980651</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.98675315139285</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0469497585564793</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.555258247684437</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>78.9729775963031</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.06968020104871</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.538753471267431</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1.98547249919756</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0470919268506275</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.555348365931329</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>59.0076320637316</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.52179660679113</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.769758315873909</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.97697975508511</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0480439186295605</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.562026839474448</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20.5604973991701</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.71709341595838</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.871994595740015</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1.96915602957514</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.048935176408572</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.565327658616277</v>
+      </c>
+      <c r="H91" t="s">
         <v>9</v>
       </c>
     </row>
